--- a/material/kMeansDescOutput.xlsx
+++ b/material/kMeansDescOutput.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MA1PEPF00008779\EXCELCNV\729aaa76-3eb2-4656-ac65-24f5378a4823\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4E100E70-F1A2-45E7-BE8A-732054DC554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF66EB35-6E1E-437E-99E1-3A35917DECDF}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{4E100E70-F1A2-45E7-BE8A-732054DC554B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECD89BE-8E65-4CF8-8E43-EBD5BF3A7585}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{B4AE0CA4-5403-4353-B6A4-A57DFEE34645}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$Q$100</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1290,10 +1293,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1653,32 +1656,32 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="A1:Q100"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="59.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="129.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="47" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="80.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="129.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30.75">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1738,7 +1741,6 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1748,7 +1750,6 @@
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1764,9 +1765,6 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1">
         <v>4</v>
       </c>
@@ -1781,7 +1779,6 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1788,6 @@
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1807,9 +1803,6 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
@@ -1824,7 +1817,6 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +1826,6 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1853,8 +1844,6 @@
       <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
@@ -1869,7 +1858,6 @@
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1900,13 +1888,11 @@
       <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
       <c r="Q5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30.75">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1916,7 +1902,6 @@
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1911,6 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1942,9 +1926,6 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
       <c r="Q6" s="1">
         <v>0</v>
       </c>
@@ -1959,7 +1940,6 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1949,6 @@
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1988,8 +1967,6 @@
       <c r="N7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
       <c r="Q7" s="1">
         <v>0</v>
       </c>
@@ -2004,7 +1981,6 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2014,7 +1990,6 @@
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2033,8 +2008,6 @@
       <c r="N8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
       <c r="Q8" s="1">
         <v>9</v>
       </c>
@@ -2049,7 +2022,6 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2077,11 +2049,9 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="1"/>
       <c r="Q9" s="1">
         <v>5</v>
       </c>
@@ -2096,7 +2066,6 @@
       <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2106,7 +2075,6 @@
       <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2125,8 +2093,6 @@
       <c r="N10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1">
         <v>4</v>
       </c>
@@ -2141,7 +2107,6 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2116,6 @@
       <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,8 +2134,6 @@
       <c r="N11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
       <c r="Q11" s="1">
         <v>9</v>
       </c>
@@ -2186,7 +2148,6 @@
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2196,7 +2157,6 @@
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2218,7 +2178,6 @@
       <c r="O12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="1"/>
       <c r="Q12" s="1">
         <v>9</v>
       </c>
@@ -2233,7 +2192,6 @@
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2243,7 +2201,6 @@
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2259,11 +2216,9 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="1"/>
       <c r="Q13" s="1">
         <v>9</v>
       </c>
@@ -2278,7 +2233,6 @@
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2242,6 @@
       <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2304,9 +2257,6 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
       <c r="Q14" s="1">
         <v>1</v>
       </c>
@@ -2321,7 +2271,6 @@
       <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2331,7 +2280,6 @@
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2350,13 +2298,11 @@
       <c r="N15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="45.75">
+    <row r="16" spans="1:17" ht="30.75">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2366,7 +2312,6 @@
       <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2376,7 +2321,6 @@
       <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>64</v>
       </c>
@@ -2392,14 +2336,11 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
       <c r="Q16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="30.75">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2409,7 +2350,6 @@
       <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2440,13 +2380,11 @@
       <c r="N17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
       <c r="Q17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="30.75">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2456,7 +2394,6 @@
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2484,9 +2421,6 @@
       <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1">
         <v>8</v>
       </c>
@@ -2501,7 +2435,6 @@
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2529,9 +2462,6 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
       <c r="Q19" s="1">
         <v>8</v>
       </c>
@@ -2546,7 +2476,6 @@
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2556,7 +2485,6 @@
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>73</v>
       </c>
@@ -2572,11 +2500,9 @@
       <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P20" s="1"/>
       <c r="Q20" s="1">
         <v>9</v>
       </c>
@@ -2591,7 +2517,6 @@
       <c r="C21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2526,6 @@
       <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>75</v>
       </c>
@@ -2617,16 +2541,14 @@
       <c r="M21" s="1">
         <v>1</v>
       </c>
-      <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P21" s="1"/>
       <c r="Q21" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45.75">
+    <row r="22" spans="1:17" ht="30.75">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2636,7 +2558,6 @@
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
@@ -2646,7 +2567,6 @@
       <c r="G22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>77</v>
       </c>
@@ -2662,16 +2582,14 @@
       <c r="M22" s="1">
         <v>1</v>
       </c>
-      <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="1"/>
       <c r="Q22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="30.75">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2681,7 +2599,6 @@
       <c r="C23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2608,6 @@
       <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>80</v>
       </c>
@@ -2710,8 +2626,6 @@
       <c r="N23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
       <c r="Q23" s="1">
         <v>4</v>
       </c>
@@ -2726,7 +2640,6 @@
       <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
@@ -2736,7 +2649,6 @@
       <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2752,16 +2664,14 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="1"/>
       <c r="Q24" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="30.75">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2771,7 +2681,6 @@
       <c r="C25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
@@ -2802,8 +2711,6 @@
       <c r="N25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
       <c r="Q25" s="1">
         <v>1</v>
       </c>
@@ -2818,7 +2725,6 @@
       <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2849,8 +2755,6 @@
       <c r="N26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
       <c r="Q26" s="1">
         <v>1</v>
       </c>
@@ -2865,7 +2769,6 @@
       <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2875,7 +2778,6 @@
       <c r="G27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2894,8 +2796,6 @@
       <c r="N27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
       <c r="Q27" s="1">
         <v>7</v>
       </c>
@@ -2910,7 +2810,6 @@
       <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2819,6 @@
       <c r="G28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2939,8 +2837,6 @@
       <c r="N28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
       <c r="Q28" s="1">
         <v>7</v>
       </c>
@@ -2955,7 +2851,6 @@
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2965,7 +2860,6 @@
       <c r="G29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>96</v>
       </c>
@@ -2984,13 +2878,11 @@
       <c r="N29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
       <c r="Q29" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30.75">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3000,7 +2892,6 @@
       <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
@@ -3028,9 +2919,6 @@
       <c r="M30" s="1">
         <v>1</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
       <c r="Q30" s="1">
         <v>5</v>
       </c>
@@ -3045,7 +2933,6 @@
       <c r="C31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3055,7 +2942,6 @@
       <c r="G31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>100</v>
       </c>
@@ -3071,9 +2957,6 @@
       <c r="M31" s="1">
         <v>1</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
       <c r="Q31" s="1">
         <v>7</v>
       </c>
@@ -3088,7 +2971,6 @@
       <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
@@ -3098,7 +2980,6 @@
       <c r="G32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>102</v>
       </c>
@@ -3114,11 +2995,9 @@
       <c r="M32" s="1">
         <v>1</v>
       </c>
-      <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P32" s="1"/>
       <c r="Q32" s="1">
         <v>9</v>
       </c>
@@ -3133,7 +3012,6 @@
       <c r="C33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3021,6 @@
       <c r="G33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>105</v>
       </c>
@@ -3159,16 +3036,14 @@
       <c r="M33" s="1">
         <v>1</v>
       </c>
-      <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P33" s="1"/>
       <c r="Q33" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="30.75">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3178,7 +3053,6 @@
       <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3062,6 @@
       <c r="G34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>107</v>
       </c>
@@ -3210,7 +3083,6 @@
       <c r="O34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P34" s="1"/>
       <c r="Q34" s="1">
         <v>9</v>
       </c>
@@ -3225,7 +3097,6 @@
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
@@ -3253,9 +3124,6 @@
       <c r="M35" s="1">
         <v>1</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
       <c r="Q35" s="1">
         <v>0</v>
       </c>
@@ -3270,7 +3138,6 @@
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>17</v>
       </c>
@@ -3280,7 +3147,6 @@
       <c r="G36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>112</v>
       </c>
@@ -3299,13 +3165,11 @@
       <c r="N36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
       <c r="Q36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="45.75">
+    <row r="37" spans="1:17" ht="30.75">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3315,7 +3179,6 @@
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>17</v>
       </c>
@@ -3325,7 +3188,6 @@
       <c r="G37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
         <v>115</v>
       </c>
@@ -3344,8 +3206,6 @@
       <c r="N37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
       <c r="Q37" s="1">
         <v>7</v>
       </c>
@@ -3360,7 +3220,6 @@
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
@@ -3391,8 +3250,6 @@
       <c r="N38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
       <c r="Q38" s="1">
         <v>0</v>
       </c>
@@ -3407,7 +3264,6 @@
       <c r="C39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
@@ -3417,7 +3273,6 @@
       <c r="G39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>122</v>
       </c>
@@ -3436,8 +3291,6 @@
       <c r="N39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
       <c r="Q39" s="1">
         <v>0</v>
       </c>
@@ -3452,7 +3305,6 @@
       <c r="C40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
         <v>17</v>
       </c>
@@ -3462,7 +3314,6 @@
       <c r="G40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>124</v>
       </c>
@@ -3478,11 +3329,9 @@
       <c r="M40" s="1">
         <v>1</v>
       </c>
-      <c r="N40" s="1"/>
       <c r="O40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P40" s="1"/>
       <c r="Q40" s="1">
         <v>4</v>
       </c>
@@ -3497,7 +3346,6 @@
       <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
@@ -3525,9 +3373,6 @@
       <c r="M41" s="1">
         <v>1</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
       <c r="Q41" s="1">
         <v>3</v>
       </c>
@@ -3542,7 +3387,6 @@
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
         <v>17</v>
       </c>
@@ -3552,7 +3396,6 @@
       <c r="G42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
         <v>128</v>
       </c>
@@ -3568,9 +3411,6 @@
       <c r="M42" s="1">
         <v>1</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
       <c r="Q42" s="1">
         <v>1</v>
       </c>
@@ -3585,7 +3425,6 @@
       <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
@@ -3595,7 +3434,6 @@
       <c r="G43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>130</v>
       </c>
@@ -3611,11 +3449,9 @@
       <c r="M43" s="1">
         <v>1</v>
       </c>
-      <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P43" s="1"/>
       <c r="Q43" s="1">
         <v>9</v>
       </c>
@@ -3630,7 +3466,6 @@
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
@@ -3640,7 +3475,6 @@
       <c r="G44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3656,14 +3490,11 @@
       <c r="M44" s="1">
         <v>1</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
       <c r="Q44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="30.75">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3673,7 +3504,6 @@
       <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
         <v>17</v>
       </c>
@@ -3704,13 +3534,11 @@
       <c r="N45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
       <c r="Q45" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="30.75">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3720,7 +3548,6 @@
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
@@ -3748,16 +3575,14 @@
       <c r="M46" s="1">
         <v>1</v>
       </c>
-      <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P46" s="1"/>
       <c r="Q46" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="30.75">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3767,7 +3592,6 @@
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
         <v>17</v>
       </c>
@@ -3795,11 +3619,9 @@
       <c r="M47" s="1">
         <v>1</v>
       </c>
-      <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P47" s="1"/>
       <c r="Q47" s="1">
         <v>6</v>
       </c>
@@ -3814,7 +3636,6 @@
       <c r="C48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
         <v>17</v>
       </c>
@@ -3824,7 +3645,6 @@
       <c r="G48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>142</v>
       </c>
@@ -3846,7 +3666,6 @@
       <c r="O48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P48" s="1"/>
       <c r="Q48" s="1">
         <v>0</v>
       </c>
@@ -3861,7 +3680,6 @@
       <c r="C49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
@@ -3871,7 +3689,6 @@
       <c r="G49" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
         <v>145</v>
       </c>
@@ -3890,8 +3707,6 @@
       <c r="N49" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
       <c r="Q49" s="1">
         <v>1</v>
       </c>
@@ -3906,7 +3721,6 @@
       <c r="C50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
@@ -3916,7 +3730,6 @@
       <c r="G50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>147</v>
       </c>
@@ -3938,7 +3751,6 @@
       <c r="O50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P50" s="1"/>
       <c r="Q50" s="1">
         <v>9</v>
       </c>
@@ -3953,7 +3765,6 @@
       <c r="C51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
         <v>17</v>
       </c>
@@ -3984,8 +3795,6 @@
       <c r="N51" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
       <c r="Q51" s="1">
         <v>0</v>
       </c>
@@ -4000,7 +3809,6 @@
       <c r="C52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
         <v>17</v>
       </c>
@@ -4028,11 +3836,9 @@
       <c r="M52" s="1">
         <v>1</v>
       </c>
-      <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P52" s="1"/>
       <c r="Q52" s="1">
         <v>7</v>
       </c>
@@ -4047,7 +3853,6 @@
       <c r="C53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
         <v>17</v>
       </c>
@@ -4075,9 +3880,6 @@
       <c r="M53" s="1">
         <v>1</v>
       </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
       <c r="Q53" s="1">
         <v>4</v>
       </c>
@@ -4092,7 +3894,6 @@
       <c r="C54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
@@ -4102,7 +3903,6 @@
       <c r="G54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>158</v>
       </c>
@@ -4124,7 +3924,6 @@
       <c r="O54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="P54" s="1"/>
       <c r="Q54" s="1">
         <v>1</v>
       </c>
@@ -4139,7 +3938,6 @@
       <c r="C55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
         <v>17</v>
       </c>
@@ -4149,7 +3947,6 @@
       <c r="G55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
         <v>160</v>
       </c>
@@ -4165,11 +3962,9 @@
       <c r="M55" s="1">
         <v>1</v>
       </c>
-      <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P55" s="1"/>
       <c r="Q55" s="1">
         <v>9</v>
       </c>
@@ -4184,7 +3979,6 @@
       <c r="C56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>17</v>
       </c>
@@ -4218,12 +4012,11 @@
       <c r="O56" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P56" s="1"/>
       <c r="Q56" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="30.75">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4233,7 +4026,6 @@
       <c r="C57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>17</v>
       </c>
@@ -4261,9 +4053,6 @@
       <c r="M57" s="1">
         <v>1</v>
       </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
       <c r="Q57" s="1">
         <v>1</v>
       </c>
@@ -4278,7 +4067,6 @@
       <c r="C58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>17</v>
       </c>
@@ -4288,7 +4076,6 @@
       <c r="G58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>166</v>
       </c>
@@ -4304,11 +4091,9 @@
       <c r="M58" s="1">
         <v>1</v>
       </c>
-      <c r="N58" s="1"/>
       <c r="O58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P58" s="1"/>
       <c r="Q58" s="1">
         <v>9</v>
       </c>
@@ -4323,7 +4108,6 @@
       <c r="C59" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
@@ -4351,9 +4135,6 @@
       <c r="M59" s="1">
         <v>1</v>
       </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
       <c r="Q59" s="1">
         <v>2</v>
       </c>
@@ -4368,7 +4149,6 @@
       <c r="C60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
         <v>17</v>
       </c>
@@ -4396,11 +4176,9 @@
       <c r="M60" s="1">
         <v>1</v>
       </c>
-      <c r="N60" s="1"/>
       <c r="O60" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="P60" s="1"/>
       <c r="Q60" s="1">
         <v>5</v>
       </c>
@@ -4415,7 +4193,6 @@
       <c r="C61" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
         <v>17</v>
       </c>
@@ -4425,7 +4202,6 @@
       <c r="G61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>173</v>
       </c>
@@ -4447,7 +4223,6 @@
       <c r="O61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="P61" s="1"/>
       <c r="Q61" s="1">
         <v>1</v>
       </c>
@@ -4462,7 +4237,6 @@
       <c r="C62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
         <v>17</v>
       </c>
@@ -4490,11 +4264,9 @@
       <c r="M62" s="1">
         <v>1</v>
       </c>
-      <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="P62" s="1"/>
       <c r="Q62" s="1">
         <v>5</v>
       </c>
@@ -4509,7 +4281,6 @@
       <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
         <v>17</v>
       </c>
@@ -4537,11 +4308,9 @@
       <c r="M63" s="1">
         <v>1</v>
       </c>
-      <c r="N63" s="1"/>
       <c r="O63" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P63" s="1"/>
       <c r="Q63" s="1">
         <v>5</v>
       </c>
@@ -4556,7 +4325,6 @@
       <c r="C64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
@@ -4584,14 +4352,11 @@
       <c r="M64" s="1">
         <v>1</v>
       </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
       <c r="Q64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="30.75">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4601,7 +4366,6 @@
       <c r="C65" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
         <v>17</v>
       </c>
@@ -4611,7 +4375,6 @@
       <c r="G65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
         <v>183</v>
       </c>
@@ -4627,11 +4390,9 @@
       <c r="M65" s="1">
         <v>1</v>
       </c>
-      <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="P65" s="1"/>
       <c r="Q65" s="1">
         <v>1</v>
       </c>
@@ -4646,7 +4407,6 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
         <v>17</v>
       </c>
@@ -4656,7 +4416,6 @@
       <c r="G66" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
         <v>185</v>
       </c>
@@ -4675,8 +4434,6 @@
       <c r="N66" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
       <c r="Q66" s="1">
         <v>1</v>
       </c>
@@ -4691,7 +4448,6 @@
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
         <v>17</v>
       </c>
@@ -4701,7 +4457,6 @@
       <c r="G67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
         <v>187</v>
       </c>
@@ -4723,7 +4478,6 @@
       <c r="O67" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P67" s="1"/>
       <c r="Q67" s="1">
         <v>9</v>
       </c>
@@ -4738,7 +4492,6 @@
       <c r="C68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>17</v>
       </c>
@@ -4766,14 +4519,11 @@
       <c r="M68" s="1">
         <v>1</v>
       </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
       <c r="Q68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="30.75">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4783,7 +4533,6 @@
       <c r="C69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
         <v>17</v>
       </c>
@@ -4793,7 +4542,6 @@
       <c r="G69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
         <v>191</v>
       </c>
@@ -4812,13 +4560,11 @@
       <c r="N69" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
       <c r="Q69" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="30.75">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4828,7 +4574,6 @@
       <c r="C70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
         <v>17</v>
       </c>
@@ -4838,7 +4583,6 @@
       <c r="G70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
         <v>193</v>
       </c>
@@ -4854,11 +4598,9 @@
       <c r="M70" s="1">
         <v>1</v>
       </c>
-      <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P70" s="1"/>
       <c r="Q70" s="1">
         <v>3</v>
       </c>
@@ -4873,7 +4615,6 @@
       <c r="C71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
         <v>17</v>
       </c>
@@ -4901,14 +4642,11 @@
       <c r="M71" s="1">
         <v>1</v>
       </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
       <c r="Q71" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="30.75">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4918,7 +4656,6 @@
       <c r="C72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
         <v>17</v>
       </c>
@@ -4946,14 +4683,11 @@
       <c r="M72" s="1">
         <v>1</v>
       </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
       <c r="Q72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="30.75">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4963,7 +4697,6 @@
       <c r="C73" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
         <v>17</v>
       </c>
@@ -4973,7 +4706,6 @@
       <c r="G73" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
         <v>200</v>
       </c>
@@ -4995,7 +4727,6 @@
       <c r="O73" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P73" s="1"/>
       <c r="Q73" s="1">
         <v>9</v>
       </c>
@@ -5010,7 +4741,6 @@
       <c r="C74" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
         <v>17</v>
       </c>
@@ -5020,7 +4750,6 @@
       <c r="G74" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
         <v>202</v>
       </c>
@@ -5036,11 +4765,9 @@
       <c r="M74" s="1">
         <v>1</v>
       </c>
-      <c r="N74" s="1"/>
       <c r="O74" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P74" s="1"/>
       <c r="Q74" s="1">
         <v>9</v>
       </c>
@@ -5055,7 +4782,6 @@
       <c r="C75" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
         <v>17</v>
       </c>
@@ -5086,8 +4812,6 @@
       <c r="N75" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
       <c r="Q75" s="1">
         <v>1</v>
       </c>
@@ -5102,7 +4826,6 @@
       <c r="C76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
         <v>17</v>
       </c>
@@ -5112,7 +4835,6 @@
       <c r="G76" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H76" s="1"/>
       <c r="I76" s="1" t="s">
         <v>206</v>
       </c>
@@ -5128,11 +4850,9 @@
       <c r="M76" s="1">
         <v>1</v>
       </c>
-      <c r="N76" s="1"/>
       <c r="O76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="P76" s="1"/>
       <c r="Q76" s="1">
         <v>9</v>
       </c>
@@ -5147,7 +4867,6 @@
       <c r="C77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
         <v>17</v>
       </c>
@@ -5157,7 +4876,6 @@
       <c r="G77" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
         <v>208</v>
       </c>
@@ -5179,12 +4897,11 @@
       <c r="O77" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="P77" s="1"/>
       <c r="Q77" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="45.75">
+    <row r="78" spans="1:17" ht="30.75">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5194,7 +4911,6 @@
       <c r="C78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
         <v>17</v>
       </c>
@@ -5225,8 +4941,6 @@
       <c r="N78" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
       <c r="Q78" s="1">
         <v>7</v>
       </c>
@@ -5241,7 +4955,6 @@
       <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
         <v>17</v>
       </c>
@@ -5251,7 +4964,6 @@
       <c r="G79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H79" s="1"/>
       <c r="I79" s="1" t="s">
         <v>213</v>
       </c>
@@ -5270,8 +4982,6 @@
       <c r="N79" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
       <c r="Q79" s="1">
         <v>7</v>
       </c>
@@ -5286,7 +4996,6 @@
       <c r="C80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
         <v>17</v>
       </c>
@@ -5296,7 +5005,6 @@
       <c r="G80" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
         <v>215</v>
       </c>
@@ -5318,7 +5026,6 @@
       <c r="O80" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P80" s="1"/>
       <c r="Q80" s="1">
         <v>9</v>
       </c>
@@ -5333,7 +5040,6 @@
       <c r="C81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
         <v>17</v>
       </c>
@@ -5343,7 +5049,6 @@
       <c r="G81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
         <v>218</v>
       </c>
@@ -5365,7 +5070,6 @@
       <c r="O81" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="P81" s="1"/>
       <c r="Q81" s="1">
         <v>9</v>
       </c>
@@ -5380,7 +5084,6 @@
       <c r="C82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
         <v>17</v>
       </c>
@@ -5411,8 +5114,6 @@
       <c r="N82" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
       <c r="Q82" s="1">
         <v>0</v>
       </c>
@@ -5427,7 +5128,6 @@
       <c r="C83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
         <v>17</v>
       </c>
@@ -5455,9 +5155,6 @@
       <c r="M83" s="1">
         <v>1</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
       <c r="Q83" s="1">
         <v>3</v>
       </c>
@@ -5472,7 +5169,6 @@
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
         <v>17</v>
       </c>
@@ -5500,9 +5196,6 @@
       <c r="M84" s="1">
         <v>1</v>
       </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
       <c r="Q84" s="1">
         <v>1</v>
       </c>
@@ -5517,7 +5210,6 @@
       <c r="C85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
         <v>17</v>
       </c>
@@ -5545,9 +5237,6 @@
       <c r="M85" s="1">
         <v>1</v>
       </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
       <c r="Q85" s="1">
         <v>3</v>
       </c>
@@ -5562,7 +5251,6 @@
       <c r="C86" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
         <v>17</v>
       </c>
@@ -5572,7 +5260,6 @@
       <c r="G86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
         <v>228</v>
       </c>
@@ -5588,11 +5275,9 @@
       <c r="M86" s="1">
         <v>1</v>
       </c>
-      <c r="N86" s="1"/>
       <c r="O86" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P86" s="1"/>
       <c r="Q86" s="1">
         <v>9</v>
       </c>
@@ -5607,7 +5292,6 @@
       <c r="C87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
         <v>17</v>
       </c>
@@ -5617,7 +5301,6 @@
       <c r="G87" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
         <v>230</v>
       </c>
@@ -5633,11 +5316,9 @@
       <c r="M87" s="1">
         <v>1</v>
       </c>
-      <c r="N87" s="1"/>
       <c r="O87" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P87" s="1"/>
       <c r="Q87" s="1">
         <v>9</v>
       </c>
@@ -5652,7 +5333,6 @@
       <c r="C88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
         <v>17</v>
       </c>
@@ -5662,7 +5342,6 @@
       <c r="G88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
         <v>232</v>
       </c>
@@ -5678,11 +5357,9 @@
       <c r="M88" s="1">
         <v>1</v>
       </c>
-      <c r="N88" s="1"/>
       <c r="O88" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P88" s="1"/>
       <c r="Q88" s="1">
         <v>2</v>
       </c>
@@ -5697,7 +5374,6 @@
       <c r="C89" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
         <v>17</v>
       </c>
@@ -5707,7 +5383,6 @@
       <c r="G89" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H89" s="1"/>
       <c r="I89" s="1" t="s">
         <v>234</v>
       </c>
@@ -5723,14 +5398,11 @@
       <c r="M89" s="1">
         <v>1</v>
       </c>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
       <c r="Q89" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="30.75">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5740,7 +5412,6 @@
       <c r="C90" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
         <v>17</v>
       </c>
@@ -5750,7 +5421,6 @@
       <c r="G90" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H90" s="1"/>
       <c r="I90" s="1" t="s">
         <v>236</v>
       </c>
@@ -5766,14 +5436,11 @@
       <c r="M90" s="1">
         <v>1</v>
       </c>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
       <c r="Q90" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="30.75">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5783,7 +5450,6 @@
       <c r="C91" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
         <v>17</v>
       </c>
@@ -5814,8 +5480,6 @@
       <c r="N91" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
       <c r="Q91" s="1">
         <v>9</v>
       </c>
@@ -5830,7 +5494,6 @@
       <c r="C92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
         <v>17</v>
       </c>
@@ -5840,7 +5503,6 @@
       <c r="G92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
         <v>240</v>
       </c>
@@ -5856,11 +5518,9 @@
       <c r="M92" s="1">
         <v>1</v>
       </c>
-      <c r="N92" s="1"/>
       <c r="O92" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="P92" s="1"/>
       <c r="Q92" s="1">
         <v>9</v>
       </c>
@@ -5875,7 +5535,6 @@
       <c r="C93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
         <v>17</v>
       </c>
@@ -5885,7 +5544,6 @@
       <c r="G93" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
         <v>242</v>
       </c>
@@ -5901,9 +5559,6 @@
       <c r="M93" s="1">
         <v>1</v>
       </c>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
       <c r="Q93" s="1">
         <v>1</v>
       </c>
@@ -5918,7 +5573,6 @@
       <c r="C94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
         <v>17</v>
       </c>
@@ -5949,8 +5603,6 @@
       <c r="N94" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
       <c r="Q94" s="1">
         <v>1</v>
       </c>
@@ -5965,7 +5617,6 @@
       <c r="C95" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
         <v>17</v>
       </c>
@@ -5975,7 +5626,6 @@
       <c r="G95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
         <v>246</v>
       </c>
@@ -5997,7 +5647,6 @@
       <c r="O95" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="P95" s="1"/>
       <c r="Q95" s="1">
         <v>9</v>
       </c>
@@ -6012,7 +5661,6 @@
       <c r="C96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
         <v>17</v>
       </c>
@@ -6022,7 +5670,6 @@
       <c r="G96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="1"/>
       <c r="I96" s="1" t="s">
         <v>248</v>
       </c>
@@ -6041,13 +5688,11 @@
       <c r="N96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
       <c r="Q96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="30.75">
+    <row r="97" spans="1:17">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6057,7 +5702,6 @@
       <c r="C97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
         <v>17</v>
       </c>
@@ -6067,7 +5711,6 @@
       <c r="G97" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
         <v>250</v>
       </c>
@@ -6083,14 +5726,11 @@
       <c r="M97" s="1">
         <v>1</v>
       </c>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
       <c r="Q97" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="30.75">
+    <row r="98" spans="1:17">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6100,7 +5740,6 @@
       <c r="C98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
         <v>17</v>
       </c>
@@ -6110,7 +5749,6 @@
       <c r="G98" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
         <v>252</v>
       </c>
@@ -6126,16 +5764,14 @@
       <c r="M98" s="1">
         <v>1</v>
       </c>
-      <c r="N98" s="1"/>
       <c r="O98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P98" s="1"/>
       <c r="Q98" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="30.75">
+    <row r="99" spans="1:17">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6145,7 +5781,6 @@
       <c r="C99" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
         <v>17</v>
       </c>
@@ -6155,7 +5790,6 @@
       <c r="G99" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
         <v>252</v>
       </c>
@@ -6171,16 +5805,14 @@
       <c r="M99" s="1">
         <v>1</v>
       </c>
-      <c r="N99" s="1"/>
       <c r="O99" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="P99" s="1"/>
       <c r="Q99" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="30.75">
+    <row r="100" spans="1:17">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6190,7 +5822,6 @@
       <c r="C100" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
         <v>17</v>
       </c>
@@ -6200,7 +5831,6 @@
       <c r="G100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
         <v>252</v>
       </c>
@@ -6216,27 +5846,28 @@
       <c r="M100" s="1">
         <v>1</v>
       </c>
-      <c r="N100" s="1"/>
       <c r="O100" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="P100" s="1"/>
       <c r="Q100" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q100" xr:uid="{0072405B-5072-41AE-A0F4-0DDCD0CF5A32}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f76b0799-e2f7-4936-ad37-6b693d23f604">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6435,18 +6066,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="420f222d-d251-4793-a8fe-c42970fccb6f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f76b0799-e2f7-4936-ad37-6b693d23f604">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D42C5094-8343-4246-956B-8D017EDFBEEF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E49B2407-93F6-4698-AACA-1CFC1C315151}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6454,5 +6083,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E49B2407-93F6-4698-AACA-1CFC1C315151}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D42C5094-8343-4246-956B-8D017EDFBEEF}"/>
 </file>
--- a/material/kMeansDescOutput.xlsx
+++ b/material/kMeansDescOutput.xlsx
@@ -5871,8 +5871,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea32c86f466abe0e73487f21b288dc11">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43b4e9f170aba3ea30c55bd0541d73b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6477665bf9a2a8472856ca531ac1b9c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e7bcfed897bc0eb12544d3fb556e05c" ns2:_="" ns3:_="">
     <xsd:import namespace="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
     <xsd:import namespace="420f222d-d251-4793-a8fe-c42970fccb6f"/>
     <xsd:element name="properties">
@@ -5891,6 +5891,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5948,6 +5949,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6079,7 +6085,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7776661A-778F-4BB0-8FF3-BF5A0E181DCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B59F843-58D2-4FA1-ACCF-F5105D07776C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
